--- a/Data/Nuts3 Correction.xlsx
+++ b/Data/Nuts3 Correction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Nova-SBE-Field-Lab\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AABFFCA-009B-4BFF-A78F-E73DC191BA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B36D97-DB40-4A3C-BA9D-635AD1468644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="NUTS3" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NUTS3!$A$1:$E$383</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NUTS3!$A$1:$E$386</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -3111,7 +3111,7 @@
   <dimension ref="A1:E386"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C218" sqref="C218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9686,7 +9686,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E383" xr:uid="{FEC63288-EC21-4663-A8D1-3D1FE41867B1}"/>
+  <autoFilter ref="A1:E386" xr:uid="{FEC63288-EC21-4663-A8D1-3D1FE41867B1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Data/Nuts3 Correction.xlsx
+++ b/Data/Nuts3 Correction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Nova-SBE-Field-Lab\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nils/Documents/Uni/Uni Nova Dokumente/Thesis/Nova-SBE-Field-Lab/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B36D97-DB40-4A3C-BA9D-635AD1468644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7607C130-3CF8-5C4D-AE45-01B504826E8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NUTS3" sheetId="2" r:id="rId1"/>
@@ -27,8 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2771,8 +2771,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{8F129CB6-5105-4A16-BD97-2FDA39F3864D}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2788,7 +2788,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3111,19 +3111,19 @@
   <dimension ref="A1:E386"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C218" sqref="C218"/>
+      <selection activeCell="G184" sqref="G184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>876</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>385</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>385</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>385</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>386</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>385</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>385</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>385</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>389</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>387</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>387</v>
       </c>
@@ -3310,7 +3310,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>387</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>389</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>385</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>385</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>385</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>386</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>386</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>389</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>389</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>385</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>389</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>387</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>387</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>387</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>385</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>385</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>385</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>389</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>389</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>385</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>389</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>385</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>385</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>385</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>389</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>386</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>384</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>387</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>386</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>387</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>387</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>386</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>385</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>385</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>386</v>
       </c>
@@ -3905,7 +3905,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>385</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>385</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>389</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>386</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>386</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>386</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>385</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>387</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>387</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>385</v>
       </c>
@@ -4075,7 +4075,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>389</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>389</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>389</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>385</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>386</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>389</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>385</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>387</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>386</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>389</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>389</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>389</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>389</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>389</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>387</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>385</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>389</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>389</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>384</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>385</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>386</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>387</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>387</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>385</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>388</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>386</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>388</v>
       </c>
@@ -4534,7 +4534,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>387</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>388</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>387</v>
       </c>
@@ -4585,7 +4585,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>387</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>385</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>386</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>385</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>385</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>384</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>384</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>388</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>385</v>
       </c>
@@ -4738,7 +4738,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>387</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>387</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>386</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>387</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>385</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>386</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>386</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>388</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>387</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>387</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>386</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>387</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>388</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>388</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>386</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>386</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>387</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>384</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>384</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>385</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>385</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>386</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>386</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>386</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>384</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>386</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>385</v>
       </c>
@@ -5197,7 +5197,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>385</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>388</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>385</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>386</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>385</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>386</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>387</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>386</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>386</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>385</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>388</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>385</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>386</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>386</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>386</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>388</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>387</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>386</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>388</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>386</v>
       </c>
@@ -5537,7 +5537,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>386</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>388</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>387</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>387</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>387</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>386</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>388</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>386</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>387</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>387</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>386</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>386</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>387</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>386</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>388</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>386</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>388</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>388</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>388</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>385</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>387</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>387</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>387</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>387</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>385</v>
       </c>
@@ -5962,7 +5962,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>385</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>386</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>385</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>385</v>
       </c>
@@ -6030,7 +6030,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>387</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>387</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>387</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>386</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>386</v>
       </c>
@@ -6115,7 +6115,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>387</v>
       </c>
@@ -6132,7 +6132,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>386</v>
       </c>
@@ -6149,7 +6149,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>386</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>384</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>386</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>387</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>385</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>384</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>388</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>387</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>388</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>385</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>387</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>384</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>386</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>388</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>384</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>386</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>388</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>385</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>385</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>387</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>387</v>
       </c>
@@ -6506,7 +6506,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>387</v>
       </c>
@@ -6523,7 +6523,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>387</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>387</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>387</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>387</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>387</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>388</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>388</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>387</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>387</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>386</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>387</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>387</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>386</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>385</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>387</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>388</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>387</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>384</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>385</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>385</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>385</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>385</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>385</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>385</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>385</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>385</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>385</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>388</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>388</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>388</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>386</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>387</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>386</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>386</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>386</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>388</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>386</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>386</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>387</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>387</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>387</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>387</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>387</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>387</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>387</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>386</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>388</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>388</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>386</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>388</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>387</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>385</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>385</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>385</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>387</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>386</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>386</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>387</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>388</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>385</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>386</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>386</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>386</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>387</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>387</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>388</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>388</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>388</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>384</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>384</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>387</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>387</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>386</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>386</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>384</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>387</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>385</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>388</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>386</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>387</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>385</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>388</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>386</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>387</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>386</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>387</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>386</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>386</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>386</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>386</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>386</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>386</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>386</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>388</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>386</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>386</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>386</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>387</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>387</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>387</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>386</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>386</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>386</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>387</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>386</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>386</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>385</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>386</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>385</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>388</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>386</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>385</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>388</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>387</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>386</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>387</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>386</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>387</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>384</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>384</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>388</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>387</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>388</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>386</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>385</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>385</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>386</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>385</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>384</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>387</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>386</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>388</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>384</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>386</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>386</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>387</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>387</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>388</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>388</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>386</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>386</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>387</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>388</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>384</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>384</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>385</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>388</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>385</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>386</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>386</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>386</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>386</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>385</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>386</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>384</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>387</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>384</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>388</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>388</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>385</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>387</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>386</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>387</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>384</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>387</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>386</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>386</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>386</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>386</v>
       </c>
@@ -9396,7 +9396,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>386</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>387</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>386</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>387</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>385</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>387</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>385</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>388</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>385</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>384</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>384</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>388</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>385</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>385</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="6" t="s">
         <v>388</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="6" t="s">
         <v>388</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="6" t="s">
         <v>388</v>
       </c>
